--- a/public/补货模版.xlsx
+++ b/public/补货模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="15860"/>
+    <workbookView windowWidth="28000" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>名称</t>
   </si>
@@ -35,6 +35,13 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>补货前库存
+（已发货）</t>
+  </si>
+  <si>
+    <t>补货后库存</t>
   </si>
 </sst>
 </file>
@@ -678,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +697,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1016,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.6923076923077" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6923076923077" style="1" customWidth="1"/>
@@ -1030,11 +1043,13 @@
     <col min="4" max="4" width="20.6923076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5673076923077" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.5673076923077" style="1" customWidth="1"/>
-    <col min="7" max="16358" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1057692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.4326923076923" style="1" customWidth="1"/>
+    <col min="9" max="16358" width="9" style="1" customWidth="1"/>
     <col min="16359" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,6 +1068,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
